--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.933820999999999</v>
+        <v>3.378228666666666</v>
       </c>
       <c r="H2">
-        <v>23.801463</v>
+        <v>10.134686</v>
       </c>
       <c r="I2">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="J2">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.635729666666667</v>
+        <v>0.01046566666666667</v>
       </c>
       <c r="N2">
-        <v>4.907189</v>
+        <v>0.031397</v>
       </c>
       <c r="O2">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="P2">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="Q2">
-        <v>12.977586379723</v>
+        <v>0.03535541514911111</v>
       </c>
       <c r="R2">
-        <v>116.798277417507</v>
+        <v>0.318198736342</v>
       </c>
       <c r="S2">
-        <v>0.2090769858038185</v>
+        <v>0.001492737076560005</v>
       </c>
       <c r="T2">
-        <v>0.2090769858038185</v>
+        <v>0.001492737076560005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.933820999999999</v>
+        <v>3.378228666666666</v>
       </c>
       <c r="H3">
-        <v>23.801463</v>
+        <v>10.134686</v>
       </c>
       <c r="I3">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="J3">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.51038</v>
       </c>
       <c r="O3">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711777</v>
       </c>
       <c r="P3">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711776</v>
       </c>
       <c r="Q3">
-        <v>9.283575520659999</v>
+        <v>3.952955448964445</v>
       </c>
       <c r="R3">
-        <v>83.55217968593999</v>
+        <v>35.57659904067999</v>
       </c>
       <c r="S3">
-        <v>0.1495641739957456</v>
+        <v>0.1668972952452372</v>
       </c>
       <c r="T3">
-        <v>0.1495641739957455</v>
+        <v>0.1668972952452372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.933820999999999</v>
+        <v>3.378228666666666</v>
       </c>
       <c r="H4">
-        <v>23.801463</v>
+        <v>10.134686</v>
       </c>
       <c r="I4">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="J4">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2719306666666667</v>
+        <v>0.2060093333333333</v>
       </c>
       <c r="N4">
-        <v>0.8157920000000001</v>
+        <v>0.618028</v>
       </c>
       <c r="O4">
-        <v>0.08835265944870997</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="P4">
-        <v>0.08835265944870996</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="Q4">
-        <v>2.157449233744</v>
+        <v>0.6959466354675555</v>
       </c>
       <c r="R4">
-        <v>19.417043103696</v>
+        <v>6.263519719207999</v>
       </c>
       <c r="S4">
-        <v>0.03475784861819441</v>
+        <v>0.02938348600032573</v>
       </c>
       <c r="T4">
-        <v>0.0347578486181944</v>
+        <v>0.02938348600032573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>34.745824</v>
       </c>
       <c r="I5">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="J5">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.635729666666667</v>
+        <v>0.01046566666666667</v>
       </c>
       <c r="N5">
-        <v>4.907189</v>
+        <v>0.031397</v>
       </c>
       <c r="O5">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="P5">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="Q5">
-        <v>18.94492503652622</v>
+        <v>0.1212127373475556</v>
       </c>
       <c r="R5">
-        <v>170.504325328736</v>
+        <v>1.090914636128</v>
       </c>
       <c r="S5">
-        <v>0.3052145219472424</v>
+        <v>0.005117709590650216</v>
       </c>
       <c r="T5">
-        <v>0.3052145219472424</v>
+        <v>0.005117709590650216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>34.745824</v>
       </c>
       <c r="I6">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="J6">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.51038</v>
       </c>
       <c r="O6">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711777</v>
       </c>
       <c r="P6">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711776</v>
       </c>
       <c r="Q6">
         <v>13.55233840590222</v>
@@ -818,10 +818,10 @@
         <v>121.97104565312</v>
       </c>
       <c r="S6">
-        <v>0.2183365983158914</v>
+        <v>0.5721917824259231</v>
       </c>
       <c r="T6">
-        <v>0.2183365983158914</v>
+        <v>0.5721917824259231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>34.745824</v>
       </c>
       <c r="I7">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="J7">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2719306666666667</v>
+        <v>0.2060093333333333</v>
       </c>
       <c r="N7">
-        <v>0.8157920000000001</v>
+        <v>0.618028</v>
       </c>
       <c r="O7">
-        <v>0.08835265944870997</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="P7">
-        <v>0.08835265944870996</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="Q7">
-        <v>3.149485028067556</v>
+        <v>2.385988012785778</v>
       </c>
       <c r="R7">
-        <v>28.345365252608</v>
+        <v>21.473892115072</v>
       </c>
       <c r="S7">
-        <v>0.05074016209450764</v>
+        <v>0.1007385362579346</v>
       </c>
       <c r="T7">
-        <v>0.05074016209450763</v>
+        <v>0.1007385362579346</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6516016666666667</v>
+        <v>2.121129333333334</v>
       </c>
       <c r="H8">
-        <v>1.954805</v>
+        <v>6.363388</v>
       </c>
       <c r="I8">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="J8">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.635729666666667</v>
+        <v>0.01046566666666667</v>
       </c>
       <c r="N8">
-        <v>4.907189</v>
+        <v>0.031397</v>
       </c>
       <c r="O8">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="P8">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="Q8">
-        <v>1.065844177016111</v>
+        <v>0.02219903255955556</v>
       </c>
       <c r="R8">
-        <v>9.592597593144999</v>
+        <v>0.199791293036</v>
       </c>
       <c r="S8">
-        <v>0.01717141241419629</v>
+        <v>0.0009372629009065523</v>
       </c>
       <c r="T8">
-        <v>0.01717141241419629</v>
+        <v>0.0009372629009065522</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6516016666666667</v>
+        <v>2.121129333333334</v>
       </c>
       <c r="H9">
-        <v>1.954805</v>
+        <v>6.363388</v>
       </c>
       <c r="I9">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="J9">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.51038</v>
       </c>
       <c r="O9">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711777</v>
       </c>
       <c r="P9">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711776</v>
       </c>
       <c r="Q9">
-        <v>0.7624564862111113</v>
+        <v>2.481989996382223</v>
       </c>
       <c r="R9">
-        <v>6.8621083759</v>
+        <v>22.33790996744</v>
       </c>
       <c r="S9">
-        <v>0.01228364807439582</v>
+        <v>0.1047918254000173</v>
       </c>
       <c r="T9">
-        <v>0.01228364807439582</v>
+        <v>0.1047918254000173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6516016666666667</v>
+        <v>2.121129333333334</v>
       </c>
       <c r="H10">
-        <v>1.954805</v>
+        <v>6.363388</v>
       </c>
       <c r="I10">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="J10">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2719306666666667</v>
+        <v>0.2060093333333333</v>
       </c>
       <c r="N10">
-        <v>0.8157920000000001</v>
+        <v>0.618028</v>
       </c>
       <c r="O10">
-        <v>0.08835265944870997</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="P10">
-        <v>0.08835265944870996</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="Q10">
-        <v>0.1771904756177778</v>
+        <v>0.4369724398737779</v>
       </c>
       <c r="R10">
-        <v>1.59471428056</v>
+        <v>3.932751958864</v>
       </c>
       <c r="S10">
-        <v>0.00285464873600793</v>
+        <v>0.01844936510244529</v>
       </c>
       <c r="T10">
-        <v>0.00285464873600793</v>
+        <v>0.01844936510244528</v>
       </c>
     </row>
   </sheetData>
